--- a/biology/Zoologie/Blabomma/Blabomma.xlsx
+++ b/biology/Zoologie/Blabomma/Blabomma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blabomma est un genre d'araignées aranéomorphes de la famille des Cybaeidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blabomma est un genre d'araignées aranéomorphes de la famille des Cybaeidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis, au Canada, au Mexique et en Corée du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent aux États-Unis, au Canada, au Mexique et en Corée du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 02/12/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 02/12/2022) :
 Blabomma californicum (Simon, 1895)
 Blabomma flavipes Chamberlin &amp; Ivie, 1937
 Blabomma foxi Chamberlin &amp; Ivie, 1937
@@ -583,10 +599,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Chamberlin et Ivie en 1937 dans les Agelenidae. Il est placé dans les Dictynidae par Lehtinen en 1967[3] puis dans les Cybaeidae par Wheeler et al. en 2017[4].
-Chorizommoides[5] a été placé en synonymie par Lehtinen en 1967[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Chamberlin et Ivie en 1937 dans les Agelenidae. Il est placé dans les Dictynidae par Lehtinen en 1967 puis dans les Cybaeidae par Wheeler et al. en 2017.
+Chorizommoides a été placé en synonymie par Lehtinen en 1967.
 </t>
         </is>
       </c>
@@ -615,7 +633,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin &amp; Ivie, 1937 : « New spiders of the family Agelenidae from western North America. » Annals of the Entomological Society of America, vol. 30, p. 211-230.</t>
         </is>
